--- a/tests/data/real/nng/otdelnoe/Отдельное.xlsx
+++ b/tests/data/real/nng/otdelnoe/Отдельное.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Peter the Great St. Petersburg Polytechnical University\gpn\kappa\code\ftor\tests\data\real\nng\otdelnoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB1001C-A4E7-4B0C-BDAE-FB8E9E336B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DC3FA9-DC53-4478-9B2B-B7A5286A6FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Абсолютная ошибка" sheetId="1" r:id="rId1"/>
-    <sheet name="Относительная ошибка" sheetId="2" r:id="rId2"/>
-    <sheet name="Накопл. разность добычи-абс." sheetId="3" r:id="rId3"/>
-    <sheet name="Накопл. разность добычи-отн." sheetId="4" r:id="rId4"/>
+    <sheet name="Абсолютная ошибка" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Относительная ошибка" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Накопл. разность добычи-абс." sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Накопл. разность добычи-отн." sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="Q_liq - реальный" sheetId="5" r:id="rId5"/>
     <sheet name="Q_liq - модель" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="24">
   <si>
     <t>1</t>
   </si>
@@ -96,6 +96,9 @@
   <si>
     <t>Было (до перерасчета по новым забойным давлениям)</t>
   </si>
+  <si>
+    <t>NaN</t>
+  </si>
 </sst>
 </file>
 
@@ -136,9 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5971,8 +5977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CM22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22545,7 +22551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CM22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -26679,6 +26687,276 @@
     <row r="17" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>29</v>
+      </c>
+      <c r="J17">
+        <v>29</v>
+      </c>
+      <c r="K17">
+        <v>27</v>
+      </c>
+      <c r="L17">
+        <v>27</v>
+      </c>
+      <c r="M17">
+        <v>27</v>
+      </c>
+      <c r="N17">
+        <v>27</v>
+      </c>
+      <c r="O17">
+        <v>27</v>
+      </c>
+      <c r="P17">
+        <v>30</v>
+      </c>
+      <c r="Q17">
+        <v>28</v>
+      </c>
+      <c r="R17">
+        <v>28</v>
+      </c>
+      <c r="S17">
+        <v>29</v>
+      </c>
+      <c r="T17">
+        <v>29</v>
+      </c>
+      <c r="U17">
+        <v>29</v>
+      </c>
+      <c r="V17">
+        <v>29</v>
+      </c>
+      <c r="W17">
+        <v>29</v>
+      </c>
+      <c r="X17">
+        <v>30</v>
+      </c>
+      <c r="Y17">
+        <v>27</v>
+      </c>
+      <c r="Z17">
+        <v>29</v>
+      </c>
+      <c r="AA17">
+        <v>29</v>
+      </c>
+      <c r="AB17">
+        <v>28</v>
+      </c>
+      <c r="AC17">
+        <v>28</v>
+      </c>
+      <c r="AD17">
+        <v>30</v>
+      </c>
+      <c r="AE17">
+        <v>30</v>
+      </c>
+      <c r="AF17">
+        <v>30</v>
+      </c>
+      <c r="AG17">
+        <v>27</v>
+      </c>
+      <c r="AH17">
+        <v>29</v>
+      </c>
+      <c r="AI17">
+        <v>27</v>
+      </c>
+      <c r="AJ17">
+        <v>27</v>
+      </c>
+      <c r="AK17">
+        <v>27</v>
+      </c>
+      <c r="AL17">
+        <v>27</v>
+      </c>
+      <c r="AM17">
+        <v>26</v>
+      </c>
+      <c r="AN17">
+        <v>28</v>
+      </c>
+      <c r="AO17">
+        <v>27</v>
+      </c>
+      <c r="AP17">
+        <v>27</v>
+      </c>
+      <c r="AQ17">
+        <v>26</v>
+      </c>
+      <c r="AR17">
+        <v>26</v>
+      </c>
+      <c r="AS17">
+        <v>25</v>
+      </c>
+      <c r="AT17">
+        <v>23</v>
+      </c>
+      <c r="AU17">
+        <v>25</v>
+      </c>
+      <c r="AV17">
+        <v>24</v>
+      </c>
+      <c r="AW17">
+        <v>24</v>
+      </c>
+      <c r="AX17">
+        <v>23</v>
+      </c>
+      <c r="AY17">
+        <v>23</v>
+      </c>
+      <c r="AZ17">
+        <v>22</v>
+      </c>
+      <c r="BA17">
+        <v>22</v>
+      </c>
+      <c r="BB17">
+        <v>22</v>
+      </c>
+      <c r="BC17">
+        <v>24</v>
+      </c>
+      <c r="BD17">
+        <v>20</v>
+      </c>
+      <c r="BE17">
+        <v>20</v>
+      </c>
+      <c r="BF17">
+        <v>20</v>
+      </c>
+      <c r="BG17">
+        <v>19</v>
+      </c>
+      <c r="BH17">
+        <v>21</v>
+      </c>
+      <c r="BI17">
+        <v>21</v>
+      </c>
+      <c r="BJ17">
+        <v>21</v>
+      </c>
+      <c r="BK17">
+        <v>17</v>
+      </c>
+      <c r="BL17">
+        <v>17</v>
+      </c>
+      <c r="BM17">
+        <v>16</v>
+      </c>
+      <c r="BN17">
+        <v>16</v>
+      </c>
+      <c r="BO17">
+        <v>16</v>
+      </c>
+      <c r="BP17">
+        <v>16</v>
+      </c>
+      <c r="BQ17">
+        <v>16</v>
+      </c>
+      <c r="BR17">
+        <v>44</v>
+      </c>
+      <c r="BS17">
+        <v>34</v>
+      </c>
+      <c r="BT17">
+        <v>35</v>
+      </c>
+      <c r="BU17">
+        <v>32</v>
+      </c>
+      <c r="BV17">
+        <v>41</v>
+      </c>
+      <c r="BW17">
+        <v>39</v>
+      </c>
+      <c r="BX17">
+        <v>42</v>
+      </c>
+      <c r="BY17">
+        <v>39</v>
+      </c>
+      <c r="BZ17">
+        <v>41</v>
+      </c>
+      <c r="CA17">
+        <v>41</v>
+      </c>
+      <c r="CB17">
+        <v>34</v>
+      </c>
+      <c r="CC17">
+        <v>33</v>
+      </c>
+      <c r="CD17">
+        <v>29</v>
+      </c>
+      <c r="CE17">
+        <v>30</v>
+      </c>
+      <c r="CF17">
+        <v>41</v>
+      </c>
+      <c r="CG17">
+        <v>41</v>
+      </c>
+      <c r="CH17">
+        <v>40</v>
+      </c>
+      <c r="CI17">
+        <v>41</v>
+      </c>
+      <c r="CJ17">
+        <v>40</v>
+      </c>
+      <c r="CK17">
+        <v>40</v>
+      </c>
+      <c r="CL17">
+        <v>40</v>
+      </c>
+      <c r="CM17">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:91" x14ac:dyDescent="0.3">
@@ -28063,10 +28341,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:CM26"/>
+  <dimension ref="A1:CM27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32198,9 +32476,279 @@
         <v>262.16000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>28.49</v>
+      </c>
+      <c r="C17" s="1">
+        <v>28.47</v>
+      </c>
+      <c r="D17" s="1">
+        <v>28.44</v>
+      </c>
+      <c r="E17" s="1">
+        <v>28.42</v>
+      </c>
+      <c r="F17" s="1">
+        <v>28.38</v>
+      </c>
+      <c r="G17" s="1">
+        <v>28.37</v>
+      </c>
+      <c r="H17" s="1">
+        <v>28.36</v>
+      </c>
+      <c r="I17" s="1">
+        <v>28.34</v>
+      </c>
+      <c r="J17" s="1">
+        <v>28.32</v>
+      </c>
+      <c r="K17" s="1">
+        <v>28.31</v>
+      </c>
+      <c r="L17" s="1">
+        <v>28.29</v>
+      </c>
+      <c r="M17" s="1">
+        <v>28.27</v>
+      </c>
+      <c r="N17" s="1">
+        <v>28.26</v>
+      </c>
+      <c r="O17" s="1">
+        <v>28.24</v>
+      </c>
+      <c r="P17" s="1">
+        <v>28.22</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>28.23</v>
+      </c>
+      <c r="R17" s="1">
+        <v>28.23</v>
+      </c>
+      <c r="S17" s="1">
+        <v>28.22</v>
+      </c>
+      <c r="T17" s="1">
+        <v>28.21</v>
+      </c>
+      <c r="U17" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="V17" s="1">
+        <v>28.19</v>
+      </c>
+      <c r="W17" s="1">
+        <v>28.18</v>
+      </c>
+      <c r="X17" s="1">
+        <v>28.17</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>28.16</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>28.14</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>28.13</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>28.12</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>28.11</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>28.11</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>28.09</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>28.08</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>28.14</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>28.19</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>28.18</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>28.18</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>28.16</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>28.15</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>28.14</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>28.14</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>28.13</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>28.12</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>28.11</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>28.09</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>28.09</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>28.07</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>28.05</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>28.05</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>28.04</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>28.03</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>28.03</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>28.03</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>28.02</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>28.02</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>28.01</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>28</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>27.98</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>27.98</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>27.98</v>
+      </c>
+      <c r="BK17" s="1">
+        <v>27.97</v>
+      </c>
+      <c r="BL17" s="1">
+        <v>27.95</v>
+      </c>
+      <c r="BM17" s="1">
+        <v>27.95</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>27.94</v>
+      </c>
+      <c r="BO17" s="1">
+        <v>27.94</v>
+      </c>
+      <c r="BP17" s="1">
+        <v>27.93</v>
+      </c>
+      <c r="BQ17" s="1">
+        <v>27.93</v>
+      </c>
+      <c r="BR17" s="1">
+        <v>27.92</v>
+      </c>
+      <c r="BS17" s="1">
+        <v>27.92</v>
+      </c>
+      <c r="BT17" s="1">
+        <v>27.91</v>
+      </c>
+      <c r="BU17" s="1">
+        <v>27.91</v>
+      </c>
+      <c r="BV17" s="1">
+        <v>27.9</v>
+      </c>
+      <c r="BW17" s="1">
+        <v>27.9</v>
+      </c>
+      <c r="BX17" s="1">
+        <v>27.89</v>
+      </c>
+      <c r="BY17" s="1">
+        <v>27.89</v>
+      </c>
+      <c r="BZ17" s="1">
+        <v>27.88</v>
+      </c>
+      <c r="CA17" s="1">
+        <v>27.98</v>
+      </c>
+      <c r="CB17" s="1">
+        <v>28.06</v>
+      </c>
+      <c r="CC17" s="1">
+        <v>28.03</v>
+      </c>
+      <c r="CD17" s="1">
+        <v>28.01</v>
+      </c>
+      <c r="CE17" s="1">
+        <v>28</v>
+      </c>
+      <c r="CF17" s="1">
+        <v>28</v>
+      </c>
+      <c r="CG17" s="1">
+        <v>27.98</v>
+      </c>
+      <c r="CH17" s="1">
+        <v>27.97</v>
+      </c>
+      <c r="CI17" s="1">
+        <v>27.97</v>
+      </c>
+      <c r="CJ17" s="1">
+        <v>27.96</v>
+      </c>
+      <c r="CK17" s="1">
+        <v>27.98</v>
+      </c>
+      <c r="CL17" s="1">
+        <v>28</v>
+      </c>
+      <c r="CM17" s="1">
+        <v>27.99</v>
       </c>
     </row>
     <row r="18" spans="1:91" x14ac:dyDescent="0.3">
@@ -34131,6 +34679,14 @@
       </c>
       <c r="CM26">
         <v>209.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:91" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
